--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3787950.916692342</v>
+        <v>3784933.326291406</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="F2" t="n">
-        <v>83.74296752957667</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.73629588331731</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>267.3987120366969</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>91.54315909067201</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>152.6509495310446</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>268.202183627916</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>58.99344615795908</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.95327816222765</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>111.6975161720941</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>36.66307473488002</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>84.83831713889289</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.80662569464064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>43.64113096095853</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>25.76303551579331</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.26680864401877</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>17.0968179383968</v>
       </c>
       <c r="U22" t="n">
-        <v>145.8998232290783</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>155.9284188045978</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>153.380899675072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>144.4496459784226</v>
       </c>
       <c r="X28" t="n">
-        <v>31.12299370203532</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385026</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>58.19095390327369</v>
       </c>
       <c r="U31" t="n">
-        <v>170.6749938329</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>51.44029960352478</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.843519215193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>168.8149789121095</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>57.85017494300114</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,16 +3718,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>132.943673479379</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274122</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>143.3158222056514</v>
+        <v>66.32203179238459</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1406.118858921978</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1037.156341981567</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1037.156341981567</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>1037.156341981567</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921978</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3791120239298</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="C4" t="n">
-        <v>262.3791120239298</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="D4" t="n">
-        <v>112.2624726115941</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="E4" t="n">
-        <v>112.2624726115941</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="F4" t="n">
-        <v>112.2624726115941</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="G4" t="n">
-        <v>112.2624726115941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2624726115941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541695</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541695</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541695</v>
+        <v>120.1212846776635</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249199</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C5" t="n">
-        <v>1782.111371249199</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D5" t="n">
-        <v>1423.845672642449</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1038.057420044205</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>627.0715152545972</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862884</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862884</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249199</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249199</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249199</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614628</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>544.5191867458693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>544.5191867458693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>544.5191867458693</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>544.5191867458693</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>544.5191867458693</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>544.5191867458693</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.1385180919694</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>601.1385180919694</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>601.1385180919694</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>601.1385180919694</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>594.193017342766</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304454</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942546</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598975</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328861</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677812</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919694</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.3917961488078</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="C10" t="n">
-        <v>261.3917961488078</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D10" t="n">
-        <v>261.3917961488078</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E10" t="n">
-        <v>261.3917961488078</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>114.5018486508974</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>114.5018486508974</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942398</v>
+        <v>585.8862911488501</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942398</v>
+        <v>585.8862911488501</v>
       </c>
       <c r="U10" t="n">
-        <v>261.3917961488078</v>
+        <v>585.8862911488501</v>
       </c>
       <c r="V10" t="n">
-        <v>261.3917961488078</v>
+        <v>585.8862911488501</v>
       </c>
       <c r="W10" t="n">
-        <v>261.3917961488078</v>
+        <v>585.8862911488501</v>
       </c>
       <c r="X10" t="n">
-        <v>261.3917961488078</v>
+        <v>585.8862911488501</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.3917961488078</v>
+        <v>585.8862911488501</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5072,7 +5072,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.177436439849</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>783.4929482339625</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W13" t="n">
-        <v>783.4929482339625</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X13" t="n">
-        <v>783.4929482339625</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,13 +5270,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,7 +5309,7 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.0893717830343</v>
+        <v>438.3056288361466</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>438.3056288361466</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>288.1889894238109</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>288.1889894238109</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>141.2990419259005</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>141.2990419259005</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>141.2990419259005</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.423997082767</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.6314179392369</v>
+        <v>619.9540936663864</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845919</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170014</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>454.2145238948139</v>
+        <v>438.3056288361466</v>
       </c>
       <c r="C19" t="n">
-        <v>285.278340966907</v>
+        <v>438.3056288361466</v>
       </c>
       <c r="D19" t="n">
-        <v>285.278340966907</v>
+        <v>438.3056288361466</v>
       </c>
       <c r="E19" t="n">
-        <v>285.278340966907</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>285.278340966907</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>285.278340966907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>134.8603325148503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W19" t="n">
-        <v>675.007103038344</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X19" t="n">
-        <v>675.007103038344</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y19" t="n">
-        <v>454.2145238948139</v>
+        <v>619.9540936663864</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5744,52 +5744,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>3340.964766294738</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>3765.904468744135</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>4045.444533962832</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1370.57165405064</v>
       </c>
       <c r="U22" t="n">
-        <v>816.762183007535</v>
+        <v>1370.57165405064</v>
       </c>
       <c r="V22" t="n">
-        <v>816.762183007535</v>
+        <v>1115.887165844753</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>826.4699958077928</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5987,22 +5987,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3627.330715596856</v>
+        <v>3943.156846022673</v>
       </c>
       <c r="C25" t="n">
-        <v>3627.330715596856</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596856</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596856</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F25" t="n">
         <v>3627.330715596856</v>
@@ -6169,28 +6169,28 @@
         <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>4703.351119676316</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>4703.351119676316</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>4414.222480889874</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>4414.222480889874</v>
       </c>
       <c r="W25" t="n">
-        <v>3627.330715596856</v>
+        <v>4124.805310852913</v>
       </c>
       <c r="X25" t="n">
-        <v>3627.330715596856</v>
+        <v>4124.805310852913</v>
       </c>
       <c r="Y25" t="n">
-        <v>3627.330715596856</v>
+        <v>4124.805310852913</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X28" t="n">
-        <v>434.3285960683721</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y28" t="n">
-        <v>434.3285960683721</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6443,52 +6443,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,16 +6546,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.6350999123426</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U31" t="n">
-        <v>791.73675815519</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V31" t="n">
-        <v>537.0522699493032</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W31" t="n">
-        <v>247.6350999123426</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X31" t="n">
-        <v>247.6350999123426</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.6350999123426</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6698,7 +6698,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>149.1769900497048</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>149.1769900497048</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>149.1769900497048</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>149.1769900497048</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>149.1769900497048</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>149.1769900497048</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.14914771935</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>4182.464659513464</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W34" t="n">
-        <v>3893.047489476503</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X34" t="n">
-        <v>3665.057938578486</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6974,7 +6974,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7017,19 +7017,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>4579.259288856816</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>4324.574800650929</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>4324.574800650929</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>4324.574800650929</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>4103.782221507399</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>3474.117534194712</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>4278.529112458863</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>4558.06917767756</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>337.3000764349712</v>
       </c>
     </row>
     <row r="41">
@@ -7409,40 +7409,40 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
@@ -7497,16 +7497,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1253.554628251668</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1253.554628251668</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1253.554628251668</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>998.8701400457815</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>709.4529700088208</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>709.4529700088208</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>709.4529700088208</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7631,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,7 +7670,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>241.9805482336712</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>853.378510429061</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270198</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028836</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270198</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028836</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>295.3773510571273</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.365749697064</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9249,22 +9249,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863238</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>96.03744927814557</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>38.86002301949833</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>398.9629823660886</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720735</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>249.5742776636973</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>140.8713382501443</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.0253544872967</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.77811450331345</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>120.6709271307759</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>73.15243682025323</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>204.4507431199924</v>
       </c>
       <c r="U22" t="n">
-        <v>140.3375291694991</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>41.99239117900544</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>142.0733523581684</v>
       </c>
       <c r="X28" t="n">
-        <v>194.5866616870018</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>163.3566071551156</v>
       </c>
       <c r="U31" t="n">
-        <v>115.5623585656774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,7 +25090,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>97.47352876401135</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.74113413690179</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>117.4223734864679</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>52.56907052127084</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>64.97713650422429</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.26883114644335</v>
+        <v>152.2626215597102</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147616</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>723403.7605147616</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>723403.7605147617</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147618</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430955</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143907</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69723.06389524718</v>
+        <v>-70138.27840471407</v>
       </c>
       <c r="C6" t="n">
-        <v>520244.8153192977</v>
+        <v>519829.6008098304</v>
       </c>
       <c r="D6" t="n">
-        <v>520244.8153192973</v>
+        <v>519829.6008098302</v>
       </c>
       <c r="E6" t="n">
-        <v>91544.89743483895</v>
+        <v>91210.72846770956</v>
       </c>
       <c r="F6" t="n">
-        <v>616704.9339117354</v>
+        <v>616370.764944606</v>
       </c>
       <c r="G6" t="n">
-        <v>616704.9339117354</v>
+        <v>616370.764944606</v>
       </c>
       <c r="H6" t="n">
-        <v>616704.9339117353</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="I6" t="n">
-        <v>616704.9339117353</v>
+        <v>616370.7649446058</v>
       </c>
       <c r="J6" t="n">
-        <v>440281.7147191424</v>
+        <v>439947.5457520125</v>
       </c>
       <c r="K6" t="n">
-        <v>616704.9339117354</v>
+        <v>616370.7649446058</v>
       </c>
       <c r="L6" t="n">
-        <v>616704.9339117354</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="M6" t="n">
-        <v>481903.9186778982</v>
+        <v>481569.7497107689</v>
       </c>
       <c r="N6" t="n">
-        <v>616704.9339117353</v>
+        <v>616370.7649446059</v>
       </c>
       <c r="O6" t="n">
-        <v>616704.9339117352</v>
+        <v>616370.7649446059</v>
       </c>
       <c r="P6" t="n">
-        <v>616704.9339117357</v>
+        <v>616370.764944606</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>239.2681802650469</v>
       </c>
       <c r="F2" t="n">
-        <v>323.1330782121348</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>101.7932824303249</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>77.22932590902091</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>97.87417973431064</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>322.241010930123</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>59.4945894189743</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>114.5316580355646</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>354.7907238628359</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.21761067956749</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>100.4480227779248</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,25 +34936,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>628.5719244551402</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>607.5603230950769</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367899</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>429.2320226761585</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>472.9319699494721</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>495.6240934217708</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37151,16 +37151,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>349.2844000699646</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37625,25 +37625,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>709.3873594165549</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3784933.326291406</v>
+        <v>3860462.995956211</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.883767059</v>
+        <v>7728169.883767061</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.6621898072149</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>20.74894808697008</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.51651982872603</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>160.4740936944298</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>267.3987120366969</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>286.0983385166236</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>24.91932345750158</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.202183627916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>215.4705342148698</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>116.9994895969261</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>111.6975161720941</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>50.95466505913529</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>84.83831713889289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>43.64113096095853</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>51.50397065788149</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.76303551579331</v>
+        <v>91.94988401775056</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>17.0968179383968</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>22.11451400144593</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>155.9284188045978</v>
+        <v>68.70675957555575</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W28" t="n">
-        <v>144.4496459784226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>58.19095390327369</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>14.05504092725447</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>140.8594116461206</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>51.44029960352478</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>152.0414355504811</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>168.8149789121095</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>57.85017494300114</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>132.943673479379</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>88.99177052521325</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274122</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.32203179238459</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>871.6756726293982</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>485.8874200311539</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>74.90151524154635</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4364,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>120.1212846776635</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>902.4179758042681</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>998.4963627014592</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>612.7081101032149</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.2378263186104</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>404.2378263186104</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D10" t="n">
-        <v>404.2378263186104</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4960,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>585.8862911488501</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,16 +5029,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823783</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,16 +5068,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.969903867171</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O12" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>299.1044585579338</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169051</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799445</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X13" t="n">
-        <v>245.130185042679</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>447.0175521403269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.347833878255</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.3056288361466</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>438.3056288361466</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>288.1889894238109</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>288.1889894238109</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>141.2990419259005</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>141.2990419259005</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>141.2990419259005</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1446.892057772164</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1446.892057772164</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1223.106642561669</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>933.9780037752275</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033469</v>
+        <v>933.9780037752275</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663864</v>
+        <v>644.5608337382669</v>
       </c>
       <c r="X16" t="n">
-        <v>619.9540936663864</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="Y16" t="n">
-        <v>619.9540936663864</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,10 +5542,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1818.397748747283</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.3056288361466</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="C19" t="n">
-        <v>438.3056288361466</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="D19" t="n">
-        <v>438.3056288361466</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033469</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>619.9540936663864</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>619.9540936663864</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y19" t="n">
-        <v>619.9540936663864</v>
+        <v>371.7442270155261</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5774,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108312</v>
+        <v>412.6079778147084</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014776</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>3340.964766294738</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744135</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962832</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.6878657662453</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T22" t="n">
-        <v>1370.57165405064</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.57165405064</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V22" t="n">
-        <v>1115.887165844753</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W22" t="n">
-        <v>826.4699958077928</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="X22" t="n">
-        <v>598.4804449097754</v>
+        <v>1076.374635402534</v>
       </c>
       <c r="Y22" t="n">
-        <v>377.6878657662453</v>
+        <v>855.5820562590036</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277037</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790663</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3943.156846022673</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C25" t="n">
-        <v>3774.220663094766</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>3774.220663094766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596856</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>4703.351119676316</v>
+        <v>1318.440399871693</v>
       </c>
       <c r="T25" t="n">
-        <v>4703.351119676316</v>
+        <v>1094.654984661199</v>
       </c>
       <c r="U25" t="n">
-        <v>4414.222480889874</v>
+        <v>1094.654984661199</v>
       </c>
       <c r="V25" t="n">
-        <v>4414.222480889874</v>
+        <v>1094.654984661199</v>
       </c>
       <c r="W25" t="n">
-        <v>4124.805310852913</v>
+        <v>805.237814624238</v>
       </c>
       <c r="X25" t="n">
-        <v>4124.805310852913</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y25" t="n">
-        <v>4124.805310852913</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,16 +6211,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5376338299834</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5480829319661</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6452,7 +6454,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6488,7 +6490,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6549,13 +6551,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1240.217519157017</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1240.217519157017</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V31" t="n">
-        <v>985.5330309511296</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="W31" t="n">
-        <v>696.115860914169</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X31" t="n">
-        <v>468.1263100161517</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222747</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.1769900497048</v>
+        <v>3920.030958034891</v>
       </c>
       <c r="C34" t="n">
-        <v>149.1769900497048</v>
+        <v>3920.030958034891</v>
       </c>
       <c r="D34" t="n">
-        <v>149.1769900497048</v>
+        <v>3920.030958034891</v>
       </c>
       <c r="E34" t="n">
-        <v>149.1769900497048</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F34" t="n">
-        <v>149.1769900497048</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G34" t="n">
-        <v>149.1769900497048</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>874.927113122792</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169051</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W34" t="n">
-        <v>330.8254548799445</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="X34" t="n">
-        <v>330.8254548799445</v>
+        <v>3920.030958034891</v>
       </c>
       <c r="Y34" t="n">
-        <v>330.8254548799445</v>
+        <v>3920.030958034891</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6919,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7017,19 +7019,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>378.1030765138943</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>624.8682044203583</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>932.1883377003199</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3922.133756677159</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="C37" t="n">
-        <v>3922.133756677159</v>
+        <v>512.4455298774227</v>
       </c>
       <c r="D37" t="n">
-        <v>3922.133756677159</v>
+        <v>362.3288904650869</v>
       </c>
       <c r="E37" t="n">
-        <v>3774.220663094766</v>
+        <v>362.3288904650869</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596856</v>
+        <v>362.3288904650869</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>4579.259288856816</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>4324.574800650929</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W37" t="n">
-        <v>4324.574800650929</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X37" t="n">
-        <v>4324.574800650929</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y37" t="n">
-        <v>4103.782221507399</v>
+        <v>681.3817128053296</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465859</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372323</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>3474.117534194712</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>4278.529112458863</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>4558.06917767756</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>4763.09165845977</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.6516116047315</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>155.6516116047315</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>155.6516116047315</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>155.6516116047315</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>155.6516116047315</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>155.6516116047315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>155.6516116047315</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>558.0926555785013</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y40" t="n">
-        <v>337.3000764349712</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7408,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,19 +7496,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.8045051785811</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>358.8683222506741</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1253.554628251668</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1253.554628251668</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.554628251668</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>998.8701400457815</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4529700088208</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4529700088208</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4529700088208</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,22 +7730,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>920.3704617344999</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>853.378510429061</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>295.3773510571273</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>73.64859338270679</v>
       </c>
       <c r="N15" t="n">
-        <v>274.365749697064</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>308.1251096272034</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>392.1113620226418</v>
       </c>
       <c r="N21" t="n">
-        <v>96.03744927814557</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659901</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>104.8749102765727</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>28.1226370626303</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M33" t="n">
-        <v>38.86002301949833</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>91.23759968302119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>398.9629823660886</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,22 +11144,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>96.03744927814699</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>94.46638296379595</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>140.8713382501443</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>66.77811450331345</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>58.4603817459113</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>120.6709271307759</v>
+        <v>54.48407862881861</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,19 +24180,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>204.4507431199924</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>203.5951413875912</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.99239117900544</v>
+        <v>129.2140504080475</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0733523581684</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>163.3566071551156</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>238.0826023965735</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>5.574551000448594</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>97.47352876401135</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>14.45213291289653</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>117.4223734864679</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>52.56907052127084</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>93.1189762223124</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>64.97713650422429</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>163.1458727986147</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>52.39982339880519</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.2626215597102</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.8244980832</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980832</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147619</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="G2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147617</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147614</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147619</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.352540372565272e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,25 +26426,25 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.66962143914</v>
-      </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26457,7 +26459,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,13 +26487,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471407</v>
+        <v>-70138.27840471434</v>
       </c>
       <c r="C6" t="n">
         <v>519829.6008098304</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.6008098301</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846770956</v>
+        <v>91210.72846771</v>
       </c>
       <c r="F6" t="n">
         <v>616370.764944606</v>
       </c>
       <c r="G6" t="n">
+        <v>616370.7649446059</v>
+      </c>
+      <c r="H6" t="n">
+        <v>616370.7649446054</v>
+      </c>
+      <c r="I6" t="n">
         <v>616370.764944606</v>
       </c>
-      <c r="H6" t="n">
-        <v>616370.7649446056</v>
-      </c>
-      <c r="I6" t="n">
-        <v>616370.7649446058</v>
-      </c>
       <c r="J6" t="n">
-        <v>439947.5457520125</v>
+        <v>439947.545752013</v>
       </c>
       <c r="K6" t="n">
-        <v>616370.7649446058</v>
+        <v>616370.7649446062</v>
       </c>
       <c r="L6" t="n">
         <v>616370.7649446056</v>
       </c>
       <c r="M6" t="n">
-        <v>481569.7497107689</v>
+        <v>481569.7497107682</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446059</v>
+        <v>616370.7649446058</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.7649446059</v>
+        <v>616370.7649446058</v>
       </c>
       <c r="P6" t="n">
-        <v>616370.764944606</v>
+        <v>616370.7649446054</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,13 +26755,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.2681802650469</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>393.0352219338249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7932824303249</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>126.0489046421612</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>97.87417973431064</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>100.13960013943</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>123.9453835684545</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.5316580355646</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>191.4055115268417</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,16 +28019,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>50.31031266212479</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>100.4480227779248</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35498,19 +35500,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>628.5719244551402</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>384.0729704331731</v>
       </c>
       <c r="N15" t="n">
-        <v>607.5603230950769</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>515.2185245587281</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731084</v>
       </c>
       <c r="N21" t="n">
-        <v>429.2320226761585</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502014</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>387.2386125176812</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>338.5470141130965</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>495.6240934217708</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37148,22 +37150,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M33" t="n">
-        <v>349.2844000699646</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37385,22 +37387,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>241.8130382709604</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37622,28 +37624,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>709.3873594165549</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37862,22 +37864,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>406.4618263286133</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860462.995956211</v>
+        <v>3853445.981064499</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.883767061</v>
+        <v>7728169.883767059</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>104.8161677931376</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>20.74894808697008</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>305.5176794933398</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>286.0983385166236</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.91932345750158</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>215.4705342148698</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>374.4519878923199</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>116.9994895969261</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.31590541686263</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>103.7702737610501</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>50.95466505913529</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.50397065788149</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>91.94988401775056</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869253</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>22.11451400144593</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>68.70675957555575</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7067178467367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766701</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>229.0573510538004</v>
       </c>
       <c r="V31" t="n">
-        <v>14.05504092725447</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>140.8594116461206</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,10 +3246,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896933</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>152.0414355504811</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>132.5906791667248</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>88.99177052521325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.5645290049876</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="D2" t="n">
-        <v>871.6756726293982</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>485.8874200311539</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>74.90151524154635</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4661,28 +4661,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1725.724578248621</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1356.76206130821</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>998.4963627014592</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>612.7081101032149</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011339</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>447.0175521403269</v>
+        <v>352.4535582568376</v>
       </c>
       <c r="C13" t="n">
-        <v>447.0175521403269</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>447.0175521403269</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>299.1044585579338</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5193,22 +5193,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X13" t="n">
-        <v>447.0175521403269</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.0175521403269</v>
+        <v>534.1020230870773</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,22 +5278,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5436,7 +5436,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1446.892057772164</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1446.892057772164</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1223.106642561669</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>933.9780037752275</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>933.9780037752275</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>644.5608337382669</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>416.5712828402495</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,34 +5530,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M18" t="n">
         <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.0957621852864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>190.0957621852864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>190.0957621852864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>592.5368061590563</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>371.7442270155261</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147084</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333287</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.712528333287</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X22" t="n">
-        <v>1076.374635402534</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y22" t="n">
-        <v>855.5820562590036</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277037</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341679</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.91112712663</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790663</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1318.440399871693</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1094.654984661199</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1094.654984661199</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1094.654984661199</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>805.237814624238</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>805.237814624238</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,64 +6214,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1236.836466556558</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,58 +6439,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880508</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>874.927113122792</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V31" t="n">
-        <v>860.7301020851612</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W31" t="n">
-        <v>860.7301020851612</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X31" t="n">
-        <v>860.7301020851612</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>860.7301020851612</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3920.030958034891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3920.030958034891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3920.030958034891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4148.020508932908</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4148.020508932908</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3920.030958034891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3920.030958034891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>681.3817128053296</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>512.4455298774227</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>362.3288904650869</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>362.3288904650869</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>362.3288904650869</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033469</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>909.3712637033469</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>681.3817128053296</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y37" t="n">
-        <v>681.3817128053296</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7189,22 +7189,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7213,13 +7213,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>2279.445761859783</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1185.240178049213</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1440.770281663976</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1240.850271579528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1017.064856369034</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.64859338270679</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>277.6717966208059</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>85.30006332127738</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
-        <v>392.1113620226418</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.314990659901</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>104.8749102765727</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
-        <v>28.1226370626303</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>176.7176547498451</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>63.47654733757777</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>94.46638296379595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>58.4603817459113</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>54.48407862881861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23949,10 +23949,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.74113413690273</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>203.5951413875912</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>79.4309254770908</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>129.2140504080475</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43092547709131</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>61.34209567542473</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.18000134477694</v>
       </c>
       <c r="V31" t="n">
-        <v>238.0826023965735</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>5.574551000448594</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>14.45213291289653</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>93.1189762223124</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>163.1458727986147</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>52.39982339880519</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980829</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.8244980832</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.8244980832</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="15">
@@ -26316,31 +26316,31 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147613</v>
@@ -26349,13 +26349,13 @@
         <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.352540372565272e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-70138.27840471434</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.6008098304</v>
+        <v>519829.6008098302</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098301</v>
+        <v>519829.6008098299</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846771</v>
+        <v>90236.13720798817</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.764944606</v>
+        <v>615396.1736848842</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.173684884</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446054</v>
+        <v>615396.1736848839</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.764944606</v>
+        <v>615396.1736848839</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.545752013</v>
+        <v>438972.9544922908</v>
       </c>
       <c r="K6" t="n">
-        <v>616370.7649446062</v>
+        <v>615396.173684884</v>
       </c>
       <c r="L6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.173684884</v>
       </c>
       <c r="M6" t="n">
-        <v>481569.7497107682</v>
+        <v>480595.1584510464</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446058</v>
+        <v>615396.1736848841</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.7649446058</v>
+        <v>615396.1736848839</v>
       </c>
       <c r="P6" t="n">
-        <v>616370.7649446054</v>
+        <v>615396.1736848839</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>249.8668738275454</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.0352219338249</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>44.88450425060856</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.0489046421612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>77.21616217014076</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.13960013943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.5017245654297</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>191.4055115268417</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>11.78595076373369</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.31031266212479</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051642</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.505330728797669e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>384.0729704331731</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619141</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623856</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081123</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879395</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>702.5357390731084</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507427</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081123</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502014</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.9101789549068</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879395</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>387.2386125176812</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507427</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
-        <v>338.5470141130965</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>487.1420318003114</v>
+        <v>490.4480787240529</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>259.5907485445772</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3853445.981064499</v>
+        <v>3858385.243913532</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800614</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.883767059</v>
+        <v>7728169.88376706</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>104.8161677931376</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>12.79282022488186</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.7806877295493</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>305.5176794933398</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>117.3399053404223</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.5411064605312</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>374.4519878923199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686263</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>103.7702737610501</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>12.16692371255236</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>206.8064269214864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3965091869253</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.2425576766701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>229.0573510538004</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896933</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>135.9622846212831</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151892</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>204.1426433017016</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C2" t="n">
-        <v>180.6868035937422</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2684.227050387029</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2684.227050387029</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2684.227050387029</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>625.3202087220412</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="S4" t="n">
-        <v>625.3202087220412</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>625.3202087220412</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3202087220412</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3202087220412</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762914</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>743.8979228366054</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>325.9341147347923</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
         <v>478.8522906713811</v>
@@ -4795,61 +4795,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4947,40 +4947,40 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
         <v>702.55736257324</v>
@@ -5038,52 +5038,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.4535582568376</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>404.3099544724604</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>404.3099544724604</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>256.3968608900673</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>109.5069133921569</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>109.5069133921569</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,13 +5217,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
@@ -5238,13 +5238,13 @@
         <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>754.8946022306075</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>754.8946022306075</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.1020230870773</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5293,31 +5293,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811264</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441658</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X22" t="n">
-        <v>237.7764125461485</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1043.759793676903</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V31" t="n">
-        <v>789.0753054710162</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>499.6581354340557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,46 +6864,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461478</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,43 +7153,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823858</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514143</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795211</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>1137.795214315807</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110137</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555259</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619892</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.76077344195</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1528.623401105982</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324678</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>528.1058742183021</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771458</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655713</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>955.1031435655713</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>748.8984533618323</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>528.1058742183021</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>277.6717966208059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>85.30006332127738</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711665</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927815205</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299159</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208121</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>63.47654733757777</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.7469046549838</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.74113413690284</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>14.74113413690273</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.4309254770908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.34209567542473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.18000134477694</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>27.33984058837427</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.2750677772942</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338815</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>21.56701208733554</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="F2" t="n">
         <v>723403.7605147617</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147616</v>
-      </c>
       <c r="G2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147612</v>
-      </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147606</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="N2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147612</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147609</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.66962143915</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="K4" t="n">
-        <v>15045.66962143905</v>
-      </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471434</v>
+        <v>-70138.27840471425</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.6008098304</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098299</v>
+        <v>519829.6008098301</v>
       </c>
       <c r="E6" t="n">
-        <v>90236.13720798817</v>
+        <v>91113.26934173753</v>
       </c>
       <c r="F6" t="n">
-        <v>615396.1736848842</v>
+        <v>616273.3058186339</v>
       </c>
       <c r="G6" t="n">
-        <v>615396.173684884</v>
+        <v>616273.3058186332</v>
       </c>
       <c r="H6" t="n">
-        <v>615396.1736848839</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="I6" t="n">
-        <v>615396.1736848839</v>
+        <v>616273.3058186331</v>
       </c>
       <c r="J6" t="n">
-        <v>438972.9544922908</v>
+        <v>439850.086626041</v>
       </c>
       <c r="K6" t="n">
-        <v>615396.173684884</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="L6" t="n">
-        <v>615396.173684884</v>
+        <v>616273.3058186335</v>
       </c>
       <c r="M6" t="n">
-        <v>480595.1584510464</v>
+        <v>481472.2905847965</v>
       </c>
       <c r="N6" t="n">
-        <v>615396.1736848841</v>
+        <v>616273.3058186328</v>
       </c>
       <c r="O6" t="n">
-        <v>615396.1736848839</v>
+        <v>616273.3058186332</v>
       </c>
       <c r="P6" t="n">
-        <v>615396.1736848839</v>
+        <v>616273.3058186329</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>249.8668738275454</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.68558234992985</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>44.88450425060856</v>
+        <v>102.6727886100651</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.21616217014076</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>206.5828674239349</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380967</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>39.33357018799795</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.78595076373369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051642</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.505330728797669e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>560.0354988619141</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>367.6637655623856</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>490.4480787240529</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L39" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330584</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L42" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350685</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523362</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
